--- a/JExcelPoi/src/main/java/trial/sample.xlsx
+++ b/JExcelPoi/src/main/java/trial/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\up2github\JavaExcel\ExJava\src\main\java\negVal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\up2github\ExcelJava\JExcelPoi\src\main\java\trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B30A92F-5BE4-4606-A673-347BEDD7939C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FF3409-1B04-4D6D-99B2-9C4269B716E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="6885" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7560" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GAJI" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +184,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -194,7 +201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,8 +218,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -523,17 +531,17 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="26" width="9.140625" customWidth="1"/>
   </cols>
@@ -568,10 +576,10 @@
       <c r="C2">
         <v>1262073</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>182414.2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1079658.8</v>
       </c>
       <c r="F2" t="s">
@@ -596,13 +604,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>495605.67</v>
       </c>
       <c r="B4">
         <v>488171</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>983776.67</v>
       </c>
       <c r="D4">
@@ -967,7 +975,7 @@
       <c r="C23">
         <v>431271</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>-27626</v>
       </c>
       <c r="E23">

--- a/JExcelPoi/src/main/java/trial/sample.xlsx
+++ b/JExcelPoi/src/main/java/trial/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\up2github\ExcelJava\JExcelPoi\src\main\java\trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FF3409-1B04-4D6D-99B2-9C4269B716E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA954C-4534-4A96-B5A0-FD51F312CE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7560" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GAJI" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,33 +177,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -218,10 +198,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,17 +510,17 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -576,10 +554,10 @@
       <c r="C2">
         <v>1262073</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>182414.2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1079658.8</v>
       </c>
       <c r="F2" t="s">
@@ -604,13 +582,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>495605.67</v>
       </c>
       <c r="B4">
         <v>488171</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>983776.67</v>
       </c>
       <c r="D4">
@@ -724,7 +702,7 @@
       <c r="C10">
         <v>452043</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>-0.79</v>
       </c>
       <c r="E10">
@@ -909,16 +887,16 @@
       <c r="A20">
         <v>163642</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>-274497</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>-110855</v>
       </c>
       <c r="D20">
         <v>32728.400000000001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>-143583.4</v>
       </c>
       <c r="F20" t="s">

--- a/JExcelPoi/src/main/java/trial/sample.xlsx
+++ b/JExcelPoi/src/main/java/trial/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\up2github\ExcelJava\JExcelPoi\src\main\java\trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA954C-4534-4A96-B5A0-FD51F312CE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D701B717-AB11-4147-9BE8-E62BB0B85B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>GAJI</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>BCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
   </si>
 </sst>
 </file>
@@ -509,8 +515,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1370,6 +1376,9 @@
       <c r="E44">
         <v>907038.2</v>
       </c>
+      <c r="F44" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="19.5" customHeight="1">
       <c r="A45">
@@ -1407,6 +1416,9 @@
       </c>
       <c r="E46">
         <v>482924.79999999999</v>
+      </c>
+      <c r="F46" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/JExcelPoi/src/main/java/trial/sample.xlsx
+++ b/JExcelPoi/src/main/java/trial/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\up2github\ExcelJava\JExcelPoi\src\main\java\trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D701B717-AB11-4147-9BE8-E62BB0B85B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3378F6F-6853-46C3-BF0B-6B2F09263170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="6345" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GAJI" sheetId="1" r:id="rId1"/>
@@ -184,12 +184,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,8 +210,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +520,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1419,6 +1426,27 @@
       </c>
       <c r="F46" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>66666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="F48" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" s="1" customFormat="1">
+      <c r="B50" s="1">
+        <v>999999</v>
       </c>
     </row>
   </sheetData>

--- a/JExcelPoi/src/main/java/trial/sample.xlsx
+++ b/JExcelPoi/src/main/java/trial/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\up2github\ExcelJava\JExcelPoi\src\main\java\trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3378F6F-6853-46C3-BF0B-6B2F09263170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974F4B71-4591-403E-8E81-C5E0A4E2C8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="6345" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GAJI" sheetId="1" r:id="rId1"/>
@@ -184,18 +184,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,9 +204,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +516,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1444,8 +1437,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:3" s="1" customFormat="1">
-      <c r="B50" s="1">
+    <row r="50" spans="2:3">
+      <c r="B50">
         <v>999999</v>
       </c>
     </row>

--- a/JExcelPoi/src/main/java/trial/sample.xlsx
+++ b/JExcelPoi/src/main/java/trial/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\up2github\ExcelJava\JExcelPoi\src\main\java\trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974F4B71-4591-403E-8E81-C5E0A4E2C8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DA241E-ACEA-44DB-86F2-1C3F337D7B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>GAJI</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -515,8 +518,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -643,6 +646,9 @@
       <c r="E6">
         <v>376913.2</v>
       </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1">
       <c r="A7">
@@ -984,6 +990,9 @@
       </c>
       <c r="E24">
         <v>542655.19999999995</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1">

--- a/JExcelPoi/src/main/java/trial/sample.xlsx
+++ b/JExcelPoi/src/main/java/trial/sample.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\up2github\ExcelJava\JExcelPoi\src\main\java\trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DA241E-ACEA-44DB-86F2-1C3F337D7B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DCEAB4-4A7F-45EE-B208-81E0AA3CDCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GAJI" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>GAJI</t>
   </si>
@@ -66,6 +69,9 @@
     <t>ARMIN</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>MIKASA ACKERMAN</t>
   </si>
   <si>
@@ -102,6 +108,12 @@
     <t>#TIME!</t>
   </si>
   <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>NIK</t>
   </si>
   <si>
@@ -163,28 +175,18 @@
   </si>
   <si>
     <t>BCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          </t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,9 +216,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -233,10 +233,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -274,234 +274,124 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -513,24 +403,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
@@ -647,7 +533,7 @@
         <v>376913.2</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1">
@@ -684,7 +570,7 @@
         <v>1058396.8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1">
@@ -758,7 +644,7 @@
         <v>960237.2</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1">
@@ -795,7 +681,7 @@
         <v>94467.6</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1">
@@ -815,7 +701,7 @@
         <v>976023.4</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1">
@@ -875,7 +761,7 @@
         <v>415495.95</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1">
@@ -892,7 +778,7 @@
         <v>576575</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1">
@@ -912,7 +798,7 @@
         <v>-143583.4</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1">
@@ -932,7 +818,7 @@
         <v>772562</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1">
@@ -972,7 +858,7 @@
         <v>458897</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1">
@@ -992,12 +878,12 @@
         <v>542655.19999999995</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>106553</v>
@@ -1012,7 +898,7 @@
         <v>91748.800000000003</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1">
@@ -1052,7 +938,7 @@
         <v>393747.20000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1">
@@ -1077,7 +963,7 @@
     </row>
     <row r="29" spans="1:6" ht="19.5" customHeight="1">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <v>309974</v>
@@ -1092,6 +978,7 @@
         <v>115560.4</v>
       </c>
       <c r="F29" t="e">
+        <f>#N/A</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1112,6 +999,7 @@
         <v>1140911.6000000001</v>
       </c>
       <c r="F30" t="e">
+        <f>#DIV/0!</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1132,6 +1020,7 @@
         <v>1165446</v>
       </c>
       <c r="F31" t="e">
+        <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1152,6 +1041,7 @@
         <v>14351.8</v>
       </c>
       <c r="F32" t="e">
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -1159,8 +1049,9 @@
       <c r="A33">
         <v>326224</v>
       </c>
-      <c r="B33">
-        <v>368224</v>
+      <c r="B33" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
       </c>
       <c r="C33">
         <v>694448</v>
@@ -1172,6 +1063,7 @@
         <v>629203.19999999995</v>
       </c>
       <c r="F33" t="e">
+        <f>#NAME?</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -1179,8 +1071,9 @@
       <c r="A34">
         <v>519767</v>
       </c>
-      <c r="B34">
-        <v>306618</v>
+      <c r="B34" t="e">
+        <f>#DIV/0!</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C34">
         <v>826385</v>
@@ -1192,6 +1085,7 @@
         <v>722431.6</v>
       </c>
       <c r="F34" t="e">
+        <f>#NUM!</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -1199,8 +1093,9 @@
       <c r="A35">
         <v>595232</v>
       </c>
-      <c r="B35">
-        <v>163915</v>
+      <c r="B35" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C35">
         <v>759147</v>
@@ -1212,6 +1107,7 @@
         <v>640100.6</v>
       </c>
       <c r="F35" t="e">
+        <f>#NULL!</f>
         <v>#NULL!</v>
       </c>
     </row>
@@ -1219,8 +1115,9 @@
       <c r="A36">
         <v>350758</v>
       </c>
-      <c r="B36">
-        <v>168196</v>
+      <c r="B36" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C36">
         <v>518954</v>
@@ -1232,6 +1129,7 @@
         <v>448802.4</v>
       </c>
       <c r="F36" t="e">
+        <f>#N/A</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1239,8 +1137,9 @@
       <c r="A37">
         <v>800974</v>
       </c>
-      <c r="B37">
-        <v>106262</v>
+      <c r="B37" t="e">
+        <f>#NAME?</f>
+        <v>#NAME?</v>
       </c>
       <c r="C37">
         <v>907236</v>
@@ -1249,6 +1148,7 @@
         <v>907236</v>
       </c>
       <c r="F37" t="e">
+        <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1256,8 +1156,9 @@
       <c r="A38">
         <v>768575</v>
       </c>
-      <c r="B38">
-        <v>135756</v>
+      <c r="B38" t="e">
+        <f>#NUM!</f>
+        <v>#NUM!</v>
       </c>
       <c r="C38">
         <v>904331</v>
@@ -1269,6 +1170,7 @@
         <v>750616</v>
       </c>
       <c r="F38" t="e">
+        <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1276,8 +1178,9 @@
       <c r="A39">
         <v>993511</v>
       </c>
-      <c r="B39">
-        <v>253414</v>
+      <c r="B39" t="e">
+        <f>#NULL!</f>
+        <v>#NULL!</v>
       </c>
       <c r="C39">
         <v>1246925</v>
@@ -1289,6 +1192,7 @@
         <v>1048222.8</v>
       </c>
       <c r="F39" t="e">
+        <f>#VALUE!</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1296,8 +1200,9 @@
       <c r="A40">
         <v>394973</v>
       </c>
-      <c r="B40">
-        <v>385963</v>
+      <c r="B40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
       </c>
       <c r="C40">
         <v>780936</v>
@@ -1309,15 +1214,16 @@
         <v>701941.4</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="19.5" customHeight="1">
       <c r="A41">
         <v>692671</v>
       </c>
-      <c r="B41">
-        <v>200806</v>
+      <c r="B41" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C41">
         <v>893477</v>
@@ -1329,15 +1235,16 @@
         <v>754942.8</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="19.5" customHeight="1">
       <c r="A42">
         <v>799107</v>
       </c>
-      <c r="B42">
-        <v>160017</v>
+      <c r="B42" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C42">
         <v>959124</v>
@@ -1349,6 +1256,7 @@
         <v>799302.6</v>
       </c>
       <c r="F42" t="e">
+        <f>#NULL!</f>
         <v>#NULL!</v>
       </c>
     </row>
@@ -1356,8 +1264,9 @@
       <c r="A43">
         <v>959847</v>
       </c>
-      <c r="B43">
-        <v>144113</v>
+      <c r="B43" t="e">
+        <f>#VALUE!</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C43">
         <v>1103960</v>
@@ -1386,7 +1295,7 @@
         <v>907038.2</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.5" customHeight="1">
@@ -1427,12 +1336,20 @@
         <v>482924.79999999999</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
         <v>66666</v>
+      </c>
+      <c r="B47" t="e">
+        <f>#NULL!</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="C47" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1441,29 +1358,39 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="C49">
+    <row r="49" spans="1:5">
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
       <c r="B50">
         <v>999999</v>
       </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1478,22 +1405,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1">
@@ -1510,7 +1437,7 @@
         <v>7048799571</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1">
@@ -1530,7 +1457,7 @@
         <v>1610466157</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1">
@@ -1587,7 +1514,7 @@
         <v>7456426731</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1">
@@ -1604,7 +1531,7 @@
         <v>326212530</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1">
@@ -1624,7 +1551,7 @@
         <v>2447155165</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1">
@@ -1644,7 +1571,7 @@
         <v>7466743114</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1">
@@ -1664,7 +1591,7 @@
         <v>1547549979</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1">
@@ -1684,7 +1611,7 @@
         <v>5465083595</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1">
@@ -1704,7 +1631,7 @@
         <v>7312988181</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1">
@@ -1724,7 +1651,7 @@
         <v>4430992270</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1">
@@ -1744,7 +1671,7 @@
         <v>5469707892</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1">
@@ -1764,7 +1691,7 @@
         <v>1326702889</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1">
@@ -1818,7 +1745,7 @@
         <v>8545117977</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1">
@@ -1838,7 +1765,7 @@
         <v>6631106140</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1">
@@ -1858,7 +1785,7 @@
         <v>6686975752</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1">
@@ -1878,7 +1805,7 @@
         <v>6329808145</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1">
@@ -1918,7 +1845,7 @@
         <v>3590747631</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1">
@@ -1938,7 +1865,7 @@
         <v>2244359908</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1">
@@ -1955,7 +1882,7 @@
         <v>5439615658</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1">
@@ -1975,7 +1902,7 @@
         <v>6170456235</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1">
@@ -1992,7 +1919,7 @@
         <v>9752098812</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
@@ -2012,7 +1939,7 @@
         <v>5911514465</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1">
@@ -2032,7 +1959,7 @@
         <v>4107775884</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1">
@@ -2052,7 +1979,7 @@
         <v>2633156224</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1">
@@ -2072,7 +1999,7 @@
         <v>6510299377</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1">
@@ -2092,7 +2019,7 @@
         <v>8826308367</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1">
@@ -2109,7 +2036,7 @@
         <v>2935071859</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1">
@@ -2129,7 +2056,7 @@
         <v>2518724429</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1">
@@ -2149,7 +2076,7 @@
         <v>6764670589</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1">
@@ -2166,7 +2093,7 @@
         <v>471199138</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1">
@@ -2226,7 +2153,7 @@
         <v>8051816865</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1">
@@ -2246,7 +2173,7 @@
         <v>4597529514</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1">
@@ -2266,7 +2193,7 @@
         <v>1501788597</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1">
@@ -2286,7 +2213,7 @@
         <v>4580102106</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75" customHeight="1">
@@ -2306,7 +2233,7 @@
         <v>2845608261</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75" customHeight="1">
@@ -2326,7 +2253,7 @@
         <v>3164347618</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75" customHeight="1">
@@ -2343,7 +2270,7 @@
         <v>9703402747</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18.75" customHeight="1">
@@ -2367,6 +2294,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>